--- a/server_logs.xlsx
+++ b/server_logs.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ94"/>
+  <dimension ref="A1:AP107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -606,6 +606,21 @@
           <t>response.headers.Location</t>
         </is>
       </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>request.headers.X-Forwarded-Proto</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>request.headers.X-Forwarded-Host</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>request.headers.X-Forwarded-For</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -769,6 +784,36 @@
           <t>?1</t>
         </is>
       </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>170.61.245.98</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>0705-170-61-245-98.ngrok-free.app</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>https</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>170.61.245.98</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0705-170-61-245-98.ngrok-free.app</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>170.61.245.98</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -897,6 +942,21 @@
       <c r="AG3" t="n">
         <v>1</v>
       </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>https</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>0705-170-61-245-98.ngrok-free.app</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>170.61.245.98</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1055,6 +1115,21 @@
           <t>http://127.0.0.1:8000</t>
         </is>
       </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>https</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>0705-170-61-245-98.ngrok-free.app</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>170.61.245.98</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1183,6 +1258,21 @@
       <c r="AG5" t="n">
         <v>4</v>
       </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>https</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>0705-170-61-245-98.ngrok-free.app</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>170.61.245.98</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1331,6 +1421,21 @@
       <c r="AG6" t="n">
         <v>1</v>
       </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>https</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>0705-170-61-245-98.ngrok-free.app</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>170.61.245.98</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1489,6 +1594,21 @@
           <t>?1</t>
         </is>
       </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>https</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>0705-170-61-245-98.ngrok-free.app</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>170.61.245.98</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1617,6 +1737,21 @@
       <c r="AG8" t="n">
         <v>5</v>
       </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>https</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>0705-170-61-245-98.ngrok-free.app</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>170.61.245.98</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1765,6 +1900,21 @@
       <c r="AG9" t="n">
         <v>1</v>
       </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>https</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>0705-170-61-245-98.ngrok-free.app</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>170.61.245.98</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1893,6 +2043,21 @@
       <c r="AG10" t="n">
         <v>5</v>
       </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>https</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>0705-170-61-245-98.ngrok-free.app</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>170.61.245.98</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2051,6 +2216,21 @@
           <t>http://127.0.0.1:8000</t>
         </is>
       </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>https</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>0705-170-61-245-98.ngrok-free.app</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>170.61.245.98</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2179,6 +2359,21 @@
       <c r="AG12" t="n">
         <v>5</v>
       </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>https</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>0705-170-61-245-98.ngrok-free.app</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>170.61.245.98</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2337,6 +2532,16 @@
           <t>http://127.0.0.1:8000</t>
         </is>
       </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>https</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>0705-170-61-245-98.ngrok-free.app</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2485,6 +2690,11 @@
       <c r="AG14" t="n">
         <v>0</v>
       </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>https</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -13943,7 +14153,17 @@
           <t>keep-alive</t>
         </is>
       </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>max-age=0</t>
+        </is>
+      </c>
       <c r="R92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -14008,6 +14228,11 @@
       </c>
       <c r="AG92" t="n">
         <v>12</v>
+      </c>
+      <c r="AH92" t="inlineStr">
+        <is>
+          <t>?1</t>
+        </is>
       </c>
     </row>
     <row r="93">
@@ -14091,6 +14316,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="T93" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
@@ -14156,6 +14386,11 @@
       </c>
       <c r="AG93" t="n">
         <v>7</v>
+      </c>
+      <c r="AH93" t="inlineStr">
+        <is>
+          <t>?1</t>
+        </is>
       </c>
     </row>
     <row r="94">
@@ -14244,6 +14479,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="T94" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
@@ -14310,10 +14550,1835 @@
       <c r="AG94" t="n">
         <v>1</v>
       </c>
+      <c r="AH94" t="inlineStr">
+        <is>
+          <t>?1</t>
+        </is>
+      </c>
       <c r="AI94" t="inlineStr">
         <is>
           <t>http://127.0.0.1:8000</t>
         </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>a5f8a8ba-3232-4487-bdc8-9d985f2e10dd</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>4c25b1c1-2836-4b96-93d7-dd7c6895c5e4</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2024-02-01T16:01:56.000Z</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>test123</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>d411f4cc55db93ca8aff506a855f61d167012c4b1fd97a6f3a208da04bd1817f</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>test123</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>170.61.245.98</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>http://0705-170-61-245-98.ngrok-free.app/about</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>text/plain</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>0705-170-61-245-98.ngrok-free.app</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>"Not A(Brand";v="99", "Google Chrome";v="121", "Chromium";v="121"</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>?0</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>"macOS"</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>text/html,application/xhtml+xml,application/xml;q=0.9,image/avif,image/webp,image/apng,*/*;q=0.8,application/signed-exchange;v=b3;q=0.7</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>same-origin</t>
+        </is>
+      </c>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>navigate</t>
+        </is>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>document</t>
+        </is>
+      </c>
+      <c r="Y95" t="inlineStr">
+        <is>
+          <t>https://0705-170-61-245-98.ngrok-free.app/</t>
+        </is>
+      </c>
+      <c r="Z95" t="inlineStr">
+        <is>
+          <t>gzip, deflate, br</t>
+        </is>
+      </c>
+      <c r="AA95" t="inlineStr">
+        <is>
+          <t>en-US,en;q=0.9,hi;q=0.8</t>
+        </is>
+      </c>
+      <c r="AB95" t="inlineStr">
+        <is>
+          <t>csrftoken=aR1T3V3480MSjbvL43tZ6E962uT71lDS; sessionid=ct5lt880i2wn2aeppjzsdldncobk8mj2</t>
+        </is>
+      </c>
+      <c r="AC95" t="inlineStr">
+        <is>
+          <t>170.61.245.98</t>
+        </is>
+      </c>
+      <c r="AD95" t="n">
+        <v>200</v>
+      </c>
+      <c r="AE95" t="inlineStr">
+        <is>
+          <t>text/html; charset=utf-8</t>
+        </is>
+      </c>
+      <c r="AF95" t="inlineStr">
+        <is>
+          <t>a5f8a8ba-3232-4487-bdc8-9d985f2e10dd</t>
+        </is>
+      </c>
+      <c r="AG95" t="n">
+        <v>69</v>
+      </c>
+      <c r="AH95" t="inlineStr">
+        <is>
+          <t>?1</t>
+        </is>
+      </c>
+      <c r="AI95" t="inlineStr">
+        <is>
+          <t>https://0705-170-61-245-98.ngrok-free.app</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>022ecc1e-0dc1-4e16-a413-cf2152ff9c07</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>482c337b-3a3b-4a51-a2df-a4fa41809acc</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2024-02-01T16:01:56.000Z</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>test123</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>d411f4cc55db93ca8aff506a855f61d167012c4b1fd97a6f3a208da04bd1817f</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>test123</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>170.61.245.98</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>http://0705-170-61-245-98.ngrok-free.app/about</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>text/plain</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>0705-170-61-245-98.ngrok-free.app</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>"Not A(Brand";v="99", "Google Chrome";v="121", "Chromium";v="121"</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>?0</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>"macOS"</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>*/*</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="W96" t="inlineStr">
+        <is>
+          <t>cors</t>
+        </is>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="Y96" t="inlineStr">
+        <is>
+          <t>https://0705-170-61-245-98.ngrok-free.app/about</t>
+        </is>
+      </c>
+      <c r="Z96" t="inlineStr">
+        <is>
+          <t>gzip, deflate, br</t>
+        </is>
+      </c>
+      <c r="AA96" t="inlineStr">
+        <is>
+          <t>en-US,en;q=0.9,hi;q=0.8</t>
+        </is>
+      </c>
+      <c r="AB96" t="inlineStr">
+        <is>
+          <t>csrftoken=aR1T3V3480MSjbvL43tZ6E962uT71lDS; sessionid=ct5lt880i2wn2aeppjzsdldncobk8mj2</t>
+        </is>
+      </c>
+      <c r="AC96" t="inlineStr">
+        <is>
+          <t>170.61.245.98</t>
+        </is>
+      </c>
+      <c r="AD96" t="n">
+        <v>200</v>
+      </c>
+      <c r="AE96" t="inlineStr">
+        <is>
+          <t>text/html; charset=utf-8</t>
+        </is>
+      </c>
+      <c r="AF96" t="inlineStr">
+        <is>
+          <t>022ecc1e-0dc1-4e16-a413-cf2152ff9c07</t>
+        </is>
+      </c>
+      <c r="AG96" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH96" t="inlineStr">
+        <is>
+          <t>?1</t>
+        </is>
+      </c>
+      <c r="AI96" t="inlineStr">
+        <is>
+          <t>https://0705-170-61-245-98.ngrok-free.app</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>25c973db-1efd-4d0e-8350-33b17188850b</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>65980aa4-6cdf-4bfb-8fde-795023324903</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2024-02-01T16:01:58.000Z</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>test123</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>d411f4cc55db93ca8aff506a855f61d167012c4b1fd97a6f3a208da04bd1817f</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>test123</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>170.61.245.98</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>http://0705-170-61-245-98.ngrok-free.app/getUserIp</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>text/plain</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>0705-170-61-245-98.ngrok-free.app</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>"Not A(Brand";v="99", "Google Chrome";v="121", "Chromium";v="121"</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>?0</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>"macOS"</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>*/*</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>same-origin</t>
+        </is>
+      </c>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t>cors</t>
+        </is>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="Y97" t="inlineStr">
+        <is>
+          <t>https://0705-170-61-245-98.ngrok-free.app/about</t>
+        </is>
+      </c>
+      <c r="Z97" t="inlineStr">
+        <is>
+          <t>gzip, deflate, br</t>
+        </is>
+      </c>
+      <c r="AA97" t="inlineStr">
+        <is>
+          <t>en-US,en;q=0.9,hi;q=0.8</t>
+        </is>
+      </c>
+      <c r="AB97" t="inlineStr">
+        <is>
+          <t>csrftoken=aR1T3V3480MSjbvL43tZ6E962uT71lDS; sessionid=ct5lt880i2wn2aeppjzsdldncobk8mj2</t>
+        </is>
+      </c>
+      <c r="AC97" t="inlineStr">
+        <is>
+          <t>170.61.245.98</t>
+        </is>
+      </c>
+      <c r="AD97" t="n">
+        <v>200</v>
+      </c>
+      <c r="AE97" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="AF97" t="inlineStr">
+        <is>
+          <t>25c973db-1efd-4d0e-8350-33b17188850b</t>
+        </is>
+      </c>
+      <c r="AG97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>e748ab2c-46ce-4a4b-ae43-c5aa8cab4e88</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>8f089912-64f5-428d-a7b4-5edd89821c66</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2024-02-01T16:01:58.000Z</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>test123</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>d411f4cc55db93ca8aff506a855f61d167012c4b1fd97a6f3a208da04bd1817f</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>test123</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>170.61.245.98</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>http://0705-170-61-245-98.ngrok-free.app/client-log</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>0705-170-61-245-98.ngrok-free.app</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>"Not A(Brand";v="99", "Google Chrome";v="121", "Chromium";v="121"</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>?0</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>"macOS"</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>*/*</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>same-origin</t>
+        </is>
+      </c>
+      <c r="W98" t="inlineStr">
+        <is>
+          <t>cors</t>
+        </is>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="Y98" t="inlineStr">
+        <is>
+          <t>https://0705-170-61-245-98.ngrok-free.app/about</t>
+        </is>
+      </c>
+      <c r="Z98" t="inlineStr">
+        <is>
+          <t>gzip, deflate, br</t>
+        </is>
+      </c>
+      <c r="AA98" t="inlineStr">
+        <is>
+          <t>en-US,en;q=0.9,hi;q=0.8</t>
+        </is>
+      </c>
+      <c r="AB98" t="inlineStr">
+        <is>
+          <t>csrftoken=aR1T3V3480MSjbvL43tZ6E962uT71lDS; sessionid=ct5lt880i2wn2aeppjzsdldncobk8mj2</t>
+        </is>
+      </c>
+      <c r="AC98" t="inlineStr">
+        <is>
+          <t>170.61.245.98</t>
+        </is>
+      </c>
+      <c r="AD98" t="n">
+        <v>200</v>
+      </c>
+      <c r="AE98" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="AF98" t="inlineStr">
+        <is>
+          <t>e748ab2c-46ce-4a4b-ae43-c5aa8cab4e88</t>
+        </is>
+      </c>
+      <c r="AG98" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>8b8f7c3d-2f43-4dd0-a1e2-41b8884d7bf9</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ba0f1867-59ac-4298-8be4-0705f5f46c25</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2024-02-01T16:01:59.000Z</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>test123</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>d411f4cc55db93ca8aff506a855f61d167012c4b1fd97a6f3a208da04bd1817f</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>test123</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>170.61.245.98</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>http://0705-170-61-245-98.ngrok-free.app/blog</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>text/plain</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>0705-170-61-245-98.ngrok-free.app</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>"Not A(Brand";v="99", "Google Chrome";v="121", "Chromium";v="121"</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>?0</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>"macOS"</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>text/html,application/xhtml+xml,application/xml;q=0.9,image/avif,image/webp,image/apng,*/*;q=0.8,application/signed-exchange;v=b3;q=0.7</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>same-origin</t>
+        </is>
+      </c>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>navigate</t>
+        </is>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>document</t>
+        </is>
+      </c>
+      <c r="Y99" t="inlineStr">
+        <is>
+          <t>https://0705-170-61-245-98.ngrok-free.app/about</t>
+        </is>
+      </c>
+      <c r="Z99" t="inlineStr">
+        <is>
+          <t>gzip, deflate, br</t>
+        </is>
+      </c>
+      <c r="AA99" t="inlineStr">
+        <is>
+          <t>en-US,en;q=0.9,hi;q=0.8</t>
+        </is>
+      </c>
+      <c r="AB99" t="inlineStr">
+        <is>
+          <t>csrftoken=aR1T3V3480MSjbvL43tZ6E962uT71lDS; sessionid=ct5lt880i2wn2aeppjzsdldncobk8mj2</t>
+        </is>
+      </c>
+      <c r="AC99" t="inlineStr">
+        <is>
+          <t>170.61.245.98</t>
+        </is>
+      </c>
+      <c r="AD99" t="n">
+        <v>404</v>
+      </c>
+      <c r="AE99" t="inlineStr">
+        <is>
+          <t>text/html; charset=utf-8</t>
+        </is>
+      </c>
+      <c r="AF99" t="inlineStr">
+        <is>
+          <t>8b8f7c3d-2f43-4dd0-a1e2-41b8884d7bf9</t>
+        </is>
+      </c>
+      <c r="AG99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>1219072f-9225-4dea-a37d-afd719ea12f3</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>f14d15a4-3385-43e7-9da9-bbe321e061b9</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2024-02-01T16:02:00.000Z</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>test123</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>d411f4cc55db93ca8aff506a855f61d167012c4b1fd97a6f3a208da04bd1817f</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>test123</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>170.61.245.98</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>http://0705-170-61-245-98.ngrok-free.app/blog/</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>text/plain</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>0705-170-61-245-98.ngrok-free.app</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>"Not A(Brand";v="99", "Google Chrome";v="121", "Chromium";v="121"</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>?0</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>"macOS"</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>text/html,application/xhtml+xml,application/xml;q=0.9,image/avif,image/webp,image/apng,*/*;q=0.8,application/signed-exchange;v=b3;q=0.7</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>same-origin</t>
+        </is>
+      </c>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>navigate</t>
+        </is>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>document</t>
+        </is>
+      </c>
+      <c r="Y100" t="inlineStr">
+        <is>
+          <t>https://0705-170-61-245-98.ngrok-free.app/blog/</t>
+        </is>
+      </c>
+      <c r="Z100" t="inlineStr">
+        <is>
+          <t>gzip, deflate, br</t>
+        </is>
+      </c>
+      <c r="AA100" t="inlineStr">
+        <is>
+          <t>en-US,en;q=0.9,hi;q=0.8</t>
+        </is>
+      </c>
+      <c r="AB100" t="inlineStr">
+        <is>
+          <t>csrftoken=aR1T3V3480MSjbvL43tZ6E962uT71lDS; sessionid=ct5lt880i2wn2aeppjzsdldncobk8mj2</t>
+        </is>
+      </c>
+      <c r="AC100" t="inlineStr">
+        <is>
+          <t>170.61.245.98</t>
+        </is>
+      </c>
+      <c r="AD100" t="n">
+        <v>200</v>
+      </c>
+      <c r="AE100" t="inlineStr">
+        <is>
+          <t>text/html; charset=utf-8</t>
+        </is>
+      </c>
+      <c r="AF100" t="inlineStr">
+        <is>
+          <t>1219072f-9225-4dea-a37d-afd719ea12f3</t>
+        </is>
+      </c>
+      <c r="AG100" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>b9f168a2-6568-4ef1-be69-5a141ca5d51f</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>cb6ec982-f6a2-40c0-bec7-38e4bf3600de</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2024-02-01T16:02:00.000Z</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>test123</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>d411f4cc55db93ca8aff506a855f61d167012c4b1fd97a6f3a208da04bd1817f</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>test123</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>170.61.245.98</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>http://0705-170-61-245-98.ngrok-free.app/blog/</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>text/plain</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>0705-170-61-245-98.ngrok-free.app</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>"Not A(Brand";v="99", "Google Chrome";v="121", "Chromium";v="121"</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>?0</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>"macOS"</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>*/*</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t>cors</t>
+        </is>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="Y101" t="inlineStr">
+        <is>
+          <t>https://0705-170-61-245-98.ngrok-free.app/blog/</t>
+        </is>
+      </c>
+      <c r="Z101" t="inlineStr">
+        <is>
+          <t>gzip, deflate, br</t>
+        </is>
+      </c>
+      <c r="AA101" t="inlineStr">
+        <is>
+          <t>en-US,en;q=0.9,hi;q=0.8</t>
+        </is>
+      </c>
+      <c r="AB101" t="inlineStr">
+        <is>
+          <t>csrftoken=aR1T3V3480MSjbvL43tZ6E962uT71lDS; sessionid=ct5lt880i2wn2aeppjzsdldncobk8mj2</t>
+        </is>
+      </c>
+      <c r="AC101" t="inlineStr">
+        <is>
+          <t>170.61.245.98</t>
+        </is>
+      </c>
+      <c r="AD101" t="n">
+        <v>200</v>
+      </c>
+      <c r="AE101" t="inlineStr">
+        <is>
+          <t>text/html; charset=utf-8</t>
+        </is>
+      </c>
+      <c r="AF101" t="inlineStr">
+        <is>
+          <t>b9f168a2-6568-4ef1-be69-5a141ca5d51f</t>
+        </is>
+      </c>
+      <c r="AG101" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>f9676c8e-5a7d-49db-8853-7b015abbcb66</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>c8970b45-2f4d-46f0-89de-c9199b233c81</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2024-02-01T16:02:01.000Z</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>test123</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>d411f4cc55db93ca8aff506a855f61d167012c4b1fd97a6f3a208da04bd1817f</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>test123</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>170.61.245.98</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>http://0705-170-61-245-98.ngrok-free.app/client-log</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>0705-170-61-245-98.ngrok-free.app</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>"Not A(Brand";v="99", "Google Chrome";v="121", "Chromium";v="121"</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>?0</t>
+        </is>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>"macOS"</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>*/*</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>same-origin</t>
+        </is>
+      </c>
+      <c r="W102" t="inlineStr">
+        <is>
+          <t>cors</t>
+        </is>
+      </c>
+      <c r="X102" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="Y102" t="inlineStr">
+        <is>
+          <t>https://0705-170-61-245-98.ngrok-free.app/contact</t>
+        </is>
+      </c>
+      <c r="Z102" t="inlineStr">
+        <is>
+          <t>gzip, deflate, br</t>
+        </is>
+      </c>
+      <c r="AA102" t="inlineStr">
+        <is>
+          <t>en-US,en;q=0.9,hi;q=0.8</t>
+        </is>
+      </c>
+      <c r="AB102" t="inlineStr">
+        <is>
+          <t>csrftoken=aR1T3V3480MSjbvL43tZ6E962uT71lDS; sessionid=ct5lt880i2wn2aeppjzsdldncobk8mj2</t>
+        </is>
+      </c>
+      <c r="AC102" t="inlineStr">
+        <is>
+          <t>170.61.245.98</t>
+        </is>
+      </c>
+      <c r="AD102" t="n">
+        <v>200</v>
+      </c>
+      <c r="AE102" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="AF102" t="inlineStr">
+        <is>
+          <t>f9676c8e-5a7d-49db-8853-7b015abbcb66</t>
+        </is>
+      </c>
+      <c r="AG102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2e3bde65-e937-49b8-9b20-31a0b77b73c2</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>acc7ab92-4c0a-4c53-8d21-765de7da1497</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2024-02-01T16:02:02.000Z</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>test123</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>d411f4cc55db93ca8aff506a855f61d167012c4b1fd97a6f3a208da04bd1817f</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>test123</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>170.61.245.98</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>http://0705-170-61-245-98.ngrok-free.app/contact</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>text/plain</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>0705-170-61-245-98.ngrok-free.app</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>"Not A(Brand";v="99", "Google Chrome";v="121", "Chromium";v="121"</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>?0</t>
+        </is>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>"macOS"</t>
+        </is>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>text/html,application/xhtml+xml,application/xml;q=0.9,image/avif,image/webp,image/apng,*/*;q=0.8,application/signed-exchange;v=b3;q=0.7</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>same-origin</t>
+        </is>
+      </c>
+      <c r="W103" t="inlineStr">
+        <is>
+          <t>navigate</t>
+        </is>
+      </c>
+      <c r="X103" t="inlineStr">
+        <is>
+          <t>document</t>
+        </is>
+      </c>
+      <c r="Y103" t="inlineStr">
+        <is>
+          <t>https://0705-170-61-245-98.ngrok-free.app/contact</t>
+        </is>
+      </c>
+      <c r="Z103" t="inlineStr">
+        <is>
+          <t>gzip, deflate, br</t>
+        </is>
+      </c>
+      <c r="AA103" t="inlineStr">
+        <is>
+          <t>en-US,en;q=0.9,hi;q=0.8</t>
+        </is>
+      </c>
+      <c r="AB103" t="inlineStr">
+        <is>
+          <t>csrftoken=aR1T3V3480MSjbvL43tZ6E962uT71lDS; sessionid=ct5lt880i2wn2aeppjzsdldncobk8mj2</t>
+        </is>
+      </c>
+      <c r="AC103" t="inlineStr">
+        <is>
+          <t>170.61.245.98</t>
+        </is>
+      </c>
+      <c r="AD103" t="n">
+        <v>200</v>
+      </c>
+      <c r="AE103" t="inlineStr">
+        <is>
+          <t>text/html; charset=utf-8</t>
+        </is>
+      </c>
+      <c r="AF103" t="inlineStr">
+        <is>
+          <t>2e3bde65-e937-49b8-9b20-31a0b77b73c2</t>
+        </is>
+      </c>
+      <c r="AG103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>6179084b-08f0-44f1-b354-efd421a93302</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>ef39411f-c5b5-4b0f-99d2-570f5673c38f</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2024-02-01T16:02:02.000Z</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>test123</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>d411f4cc55db93ca8aff506a855f61d167012c4b1fd97a6f3a208da04bd1817f</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>test123</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>170.61.245.98</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>http://0705-170-61-245-98.ngrok-free.app/contact</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>text/plain</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>0705-170-61-245-98.ngrok-free.app</t>
+        </is>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>*/*</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="W104" t="inlineStr">
+        <is>
+          <t>cors</t>
+        </is>
+      </c>
+      <c r="X104" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="Z104" t="inlineStr">
+        <is>
+          <t>gzip, deflate, br</t>
+        </is>
+      </c>
+      <c r="AA104" t="inlineStr">
+        <is>
+          <t>en-US,en;q=0.9,hi;q=0.8</t>
+        </is>
+      </c>
+      <c r="AB104" t="inlineStr">
+        <is>
+          <t>csrftoken=aR1T3V3480MSjbvL43tZ6E962uT71lDS; sessionid=ct5lt880i2wn2aeppjzsdldncobk8mj2</t>
+        </is>
+      </c>
+      <c r="AC104" t="inlineStr">
+        <is>
+          <t>170.61.245.98</t>
+        </is>
+      </c>
+      <c r="AD104" t="n">
+        <v>200</v>
+      </c>
+      <c r="AE104" t="inlineStr">
+        <is>
+          <t>text/html; charset=utf-8</t>
+        </is>
+      </c>
+      <c r="AF104" t="inlineStr">
+        <is>
+          <t>6179084b-08f0-44f1-b354-efd421a93302</t>
+        </is>
+      </c>
+      <c r="AG104" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>4f764c96-6e56-45d4-9114-b903ce9abdac</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>4c5f17ea-543d-48dd-ba68-0a50931cfb8e</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2024-02-01T16:02:03.000Z</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>test123</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>d411f4cc55db93ca8aff506a855f61d167012c4b1fd97a6f3a208da04bd1817f</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>test123</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>170.61.245.98</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>http://0705-170-61-245-98.ngrok-free.app/getUserIp</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>text/plain</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>0705-170-61-245-98.ngrok-free.app</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>*/*</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>same-origin</t>
+        </is>
+      </c>
+      <c r="W105" t="inlineStr">
+        <is>
+          <t>cors</t>
+        </is>
+      </c>
+      <c r="X105" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="Z105" t="inlineStr">
+        <is>
+          <t>gzip, deflate, br</t>
+        </is>
+      </c>
+      <c r="AA105" t="inlineStr">
+        <is>
+          <t>en-US,en;q=0.9,hi;q=0.8</t>
+        </is>
+      </c>
+      <c r="AB105" t="inlineStr">
+        <is>
+          <t>csrftoken=aR1T3V3480MSjbvL43tZ6E962uT71lDS; sessionid=ct5lt880i2wn2aeppjzsdldncobk8mj2</t>
+        </is>
+      </c>
+      <c r="AC105" t="inlineStr">
+        <is>
+          <t>170.61.245.98</t>
+        </is>
+      </c>
+      <c r="AD105" t="n">
+        <v>200</v>
+      </c>
+      <c r="AE105" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="AF105" t="inlineStr">
+        <is>
+          <t>4f764c96-6e56-45d4-9114-b903ce9abdac</t>
+        </is>
+      </c>
+      <c r="AG105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>55abd22f-97c3-4cbf-8d52-56d9a03cd928</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>76fb4f2d-6098-4f7e-b421-271257461779</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2024-02-01T16:02:05.000Z</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>test123</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>d411f4cc55db93ca8aff506a855f61d167012c4b1fd97a6f3a208da04bd1817f</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>test123</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>170.61.245.98</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>http://0705-170-61-245-98.ngrok-free.app/</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>text/plain</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>0705-170-61-245-98.ngrok-free.app</t>
+        </is>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>text/html,application/xhtml+xml,application/xml;q=0.9,image/avif,image/webp,image/apng,*/*;q=0.8,application/signed-exchange;v=b3;q=0.7</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>same-origin</t>
+        </is>
+      </c>
+      <c r="W106" t="inlineStr">
+        <is>
+          <t>navigate</t>
+        </is>
+      </c>
+      <c r="X106" t="inlineStr">
+        <is>
+          <t>document</t>
+        </is>
+      </c>
+      <c r="Z106" t="inlineStr">
+        <is>
+          <t>gzip, deflate, br</t>
+        </is>
+      </c>
+      <c r="AA106" t="inlineStr">
+        <is>
+          <t>en-US,en;q=0.9,hi;q=0.8</t>
+        </is>
+      </c>
+      <c r="AB106" t="inlineStr">
+        <is>
+          <t>csrftoken=aR1T3V3480MSjbvL43tZ6E962uT71lDS; sessionid=ct5lt880i2wn2aeppjzsdldncobk8mj2</t>
+        </is>
+      </c>
+      <c r="AC106" t="inlineStr">
+        <is>
+          <t>170.61.245.98</t>
+        </is>
+      </c>
+      <c r="AD106" t="n">
+        <v>200</v>
+      </c>
+      <c r="AE106" t="inlineStr">
+        <is>
+          <t>text/html; charset=utf-8</t>
+        </is>
+      </c>
+      <c r="AF106" t="inlineStr">
+        <is>
+          <t>55abd22f-97c3-4cbf-8d52-56d9a03cd928</t>
+        </is>
+      </c>
+      <c r="AG106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>02317120-3cd2-4edf-88d4-a87c7de681fc</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>66c88045-8961-476a-a71a-6131b542279f</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2024-02-01T16:02:05.000Z</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>test123</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>d411f4cc55db93ca8aff506a855f61d167012c4b1fd97a6f3a208da04bd1817f</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>test123</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>170.61.245.98</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>http://0705-170-61-245-98.ngrok-free.app/</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>text/plain</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>0705-170-61-245-98.ngrok-free.app</t>
+        </is>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>*/*</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="W107" t="inlineStr">
+        <is>
+          <t>cors</t>
+        </is>
+      </c>
+      <c r="X107" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="Z107" t="inlineStr">
+        <is>
+          <t>gzip, deflate, br</t>
+        </is>
+      </c>
+      <c r="AA107" t="inlineStr">
+        <is>
+          <t>en-US,en;q=0.9,hi;q=0.8</t>
+        </is>
+      </c>
+      <c r="AB107" t="inlineStr">
+        <is>
+          <t>csrftoken=aR1T3V3480MSjbvL43tZ6E962uT71lDS; sessionid=ct5lt880i2wn2aeppjzsdldncobk8mj2</t>
+        </is>
+      </c>
+      <c r="AC107" t="inlineStr">
+        <is>
+          <t>170.61.245.98</t>
+        </is>
+      </c>
+      <c r="AD107" t="n">
+        <v>200</v>
+      </c>
+      <c r="AE107" t="inlineStr">
+        <is>
+          <t>text/html; charset=utf-8</t>
+        </is>
+      </c>
+      <c r="AF107" t="inlineStr">
+        <is>
+          <t>02317120-3cd2-4edf-88d4-a87c7de681fc</t>
+        </is>
+      </c>
+      <c r="AG107" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
